--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1283055.144700896</v>
+        <v>1280803.064989689</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283173</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>166.4229244227994</v>
+        <v>299.4782125119776</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>158.0933671656955</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>179.8571015973639</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>129.6194020613866</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.078918139134</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>72.1103990269855</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487941</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>93.52676208877459</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777578</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>42.52535620972486</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>184.2763748162661</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>136.2892803597729</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>233.6429777516389</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654825</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>160.6789846282036</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>131.437227901961</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703293</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>122.832767689654</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>108.5813113004324</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365891</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890358</v>
+        <v>115.706313337375</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.2234001515595</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>35.02467705292147</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>81.278598673301</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>162.4077002759646</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>41.33703994143278</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>161.0175085755505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.0893535554407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.40545032729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>139.1630968205466</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.41770597126713</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.2935157990524</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,10 +3958,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>91.89996056624759</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>2232.598233480555</v>
       </c>
       <c r="C2" t="n">
-        <v>939.4077790033352</v>
+        <v>1863.635716540143</v>
       </c>
       <c r="D2" t="n">
-        <v>581.1420803965848</v>
+        <v>1505.370017933393</v>
       </c>
       <c r="E2" t="n">
-        <v>581.1420803965848</v>
+        <v>1119.581765335148</v>
       </c>
       <c r="F2" t="n">
-        <v>574.1965796473813</v>
+        <v>708.595860545541</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1767.604278224154</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621287</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621287</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>698.5503961647914</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1572.164517693149</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.764357757271</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686071</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064747</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080118</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986292</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>996.7496307124713</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>827.8134477845645</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D7" t="n">
-        <v>677.6968083722287</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E7" t="n">
-        <v>529.7837147898356</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F7" t="n">
-        <v>382.8937672919252</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>225.8880831339183</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.739181610489</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X7" t="n">
-        <v>996.7496307124713</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>996.7496307124713</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>417.124661698547</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>987.6786382062454</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>818.7424552783385</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>668.6258158660028</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>520.7127222836097</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4966,46 +4966,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036485</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036485</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1169.327103036485</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1169.327103036485</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,49 +5030,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>2010.924793147904</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1721.849566492102</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1467.165078286215</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1177.747908249255</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.747908249255</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.9553291057244</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,16 +5349,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5370,13 +5370,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>532.5350811160199</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>532.5350811160199</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036842</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1452.382846024768</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1162.965675987807</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>934.9761250897898</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.1835459462596</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5507,37 +5507,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5607,13 +5607,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>701.0383482155643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>550.9217088032285</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>403.0086152208354</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>256.118667722925</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5744,43 +5744,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782979</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038366</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797769</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="23">
@@ -5978,40 +5978,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>990.5373202159263</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>821.6011372880195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6221,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6306,25 +6306,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6409,22 +6409,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2337.284991357602</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.683526380543</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.608299724741</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.923811518854</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.506641481894</v>
+        <v>1394.184733704554</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.517090583878</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
         <v>1056.517090583878</v>
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557277</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>129.1951247175895</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,22 +6710,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.3544215660705</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C34" t="n">
-        <v>612.4182386381636</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.914901483327</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2063.313436506268</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1774.238209850466</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1519.553721644579</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1230.136551607618</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1002.147000709601</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>781.3544215660705</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,22 +6944,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703141</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424072</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>526.5658826424072</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138443</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854704</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648817</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648817</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.7118147508</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072698</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>129.5921236250094</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>129.5921236250094</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.469384076044</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.867919098985</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.792692443183</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1501.108204237296</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>333.5348535420919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>186.6449060441816</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-4.032039142182524e-14</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462299</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>33.12907551102219</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>30.95754073885496</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>18.49466557218912</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.39475227997627</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219395</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>25.78270532855839</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229282</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>72.44497470121223</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>110.0033420516621</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>46.24115926564405</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24920,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>98.55338150863629</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>18.61858572567999</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>105.0969227051364</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.74262662649664</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>147.3599015160444</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>45.84813034729839</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>66.73277020259215</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25846,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>73.62417772602126</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.412908766</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.4129087657</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.412908766</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.412908766</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.4129087657</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140036</v>
@@ -26329,16 +26329,16 @@
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140037</v>
@@ -26347,13 +26347,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319411</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
@@ -26451,7 +26451,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1036847.467253609</v>
+        <v>-1036847.46725361</v>
       </c>
       <c r="C6" t="n">
-        <v>291897.2784739822</v>
+        <v>291897.2784739827</v>
       </c>
       <c r="D6" t="n">
-        <v>291897.278473983</v>
+        <v>291897.2784739833</v>
       </c>
       <c r="E6" t="n">
-        <v>44146.16007089851</v>
+        <v>44111.42214546241</v>
       </c>
       <c r="F6" t="n">
-        <v>369558.6218782536</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="G6" t="n">
-        <v>369558.6218782538</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="H6" t="n">
-        <v>369558.6218782538</v>
+        <v>369523.8839528179</v>
       </c>
       <c r="I6" t="n">
-        <v>369558.6218782536</v>
+        <v>369523.883952818</v>
       </c>
       <c r="J6" t="n">
-        <v>152027.4194809763</v>
+        <v>151992.6815555406</v>
       </c>
       <c r="K6" t="n">
-        <v>369558.6218782538</v>
+        <v>369523.8839528179</v>
       </c>
       <c r="L6" t="n">
-        <v>369558.6218782541</v>
+        <v>369523.8839528182</v>
       </c>
       <c r="M6" t="n">
-        <v>284503.593942742</v>
+        <v>284468.8560173062</v>
       </c>
       <c r="N6" t="n">
-        <v>369558.6218782538</v>
+        <v>369523.8839528179</v>
       </c>
       <c r="O6" t="n">
-        <v>369558.6218782537</v>
+        <v>369523.883952818</v>
       </c>
       <c r="P6" t="n">
-        <v>369558.6218782538</v>
+        <v>369523.8839528181</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>244.498801230654</v>
+        <v>111.4435131414759</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>61.45558211047367</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>45.85255379167327</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>277.2566436803248</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.1590205169196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>93.91540923204272</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>83.32522828944138</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>261.1562795319084</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923771</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>102.8956918132064</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-6.032981521760424e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.48770650379586e-14</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29493,10 +29493,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="X28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29925,7 +29925,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-4.259375782028067e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30432,7 +30432,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,37 +31592,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31631,7 +31631,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31680,16 +31680,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883114</v>
@@ -31698,19 +31698,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753707</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,19 +32078,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32099,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,19 +32315,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32336,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33044,10 +33044,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33202,7 +33202,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043726</v>
@@ -33257,34 +33257,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533524</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295559</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060485</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>469.7150632237159</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
